--- a/0-labels/tables.xlsx
+++ b/0-labels/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinhengel/Dropbox/Readability/draft/0-labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39936A24-7655-C44F-BAD3-28253A7FF6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F27F27-21CD-3D45-8BBB-B6C36A0F1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54560" yWindow="500" windowWidth="46200" windowHeight="25520" xr2:uid="{C9968B0E-ADC9-D14B-867F-EABC4A185741}"/>
   </bookViews>
@@ -720,12 +720,6 @@
     <t>\(\beta_1\) from FGLS estimation of~\autoref{equationX}. First column restricts sample to authors' first top-four publication (\(t=1\)), second column to their second (\(t=2\)), \textit{etc.} Regressions weighted by \(1/N_j\). Standard errors (in parentheses) adjusted for two-way clustering (editor and author) and cross-model correlation. Final column estimates from an unweighted population-averaged regression; error correlations specified by an auto-regressive process of order one and standard errors (in parentheses) adjusted for one-way clustering on author. Quality controls denoted by \(\text{\ding{51}}^1\) include citation count (asinh), \(\text{max. }T\) fixed effects (author prominence) and \(\text{max. }t\) (author seniority); \(\text{\ding{51}}^3\) includes citation count (asinh) and \(\text{max. }t\), only. The variable "female ratio" defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper (see~\autoref{gender} for more details).</t>
   </si>
   <si>
-    <t>Sample 4,289 observations. Panel one displays magnitude of predicted \(R_{jP}-R_{jW}\) (the direct effect of peer review) for women and men over increasing \(t\). Panel two estimates the marginal effect of an article's female ratio (\(\beta_1+\beta_2\times t\)), separately for draft papers and published articles. Figures from FGLS estimation of~\autoref{equation15}, weighted by \(N_{it}\) (see~\autoref{data}). Control variables include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority), native speaker and editor and journal-year fixed effects. "female ratio" defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper (see~\autoref{gender} for more details). Standard errors clustered by editor and robust to cross-model correlation in parentheses.</t>
-  </si>
-  <si>
-    <t>Figures from first-differenced, IV estimation of~\autoref{equation1}~\citep{Arellano1995,Blundell1998} where instruments have been collapsed to create one instrument for each variable and lag distance. Female ratio (women): contemporaneous marginal effect of a paper's female co-author ratio for female authors (\(\beta_1\)); female ratio (men): analogous effect for male authors (\(\beta_1+\beta_2\)). (The variable "female ratio" defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper. See~\autoref{gender} for more details.) \textit{z}-statistics for first- and second-order autocorrelation in the first-differenced errors~\citep{Arellano1991}; null hypothesis no autocorrelation. Quality controls denoted by \(\text{\ding{51}}^2\) include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority). Standard errors clustered on author (in parentheses).</t>
-  </si>
-  <si>
     <t>Figures represent coefficients on female ratio from 45 separate OLS regressions of readability scores on the ratio of female authors (papers with fewer than 50 percent female authors are classified as male, see~\autoref{gender}). (6)--(9) are estimated on the sample of papers published on or after 1990 with a primary \textit{JEL} code; (9) includes 563 articles from \textit{AER P\&amp; P} (see~\autoref{FootnoteAERpp}). Quality controls denoted by \(\text{\ding{51}}^1\) include citation count (asinh), \(\text{max. }T\) fixed effects (author prominence) and \(\text{max. }t\) (author seniority). Standard errors clustered on editor in parentheses.</t>
   </si>
   <si>
@@ -733,6 +727,12 @@
   </si>
   <si>
     <t>Estimates are similar to those in~\autoref{tableH2_FemRatio}, except that female ratio has been replaced with a dummy variable equal to 1 if the paper is solo-authored by a woman and 0 if it is solo-authored by a man. (Co-authored papers are excluded.) Due to small sample sizes, columns \(t=3\) and \(t=4\text{--}5\) have been combined and estimates are clustered on author, only.</t>
+  </si>
+  <si>
+    <t>Figures from first-differenced, IV estimation of~\autoref{equation1}~\citep{Arellano1995,Blundell1998} where instruments have been collapsed to create one instrument for each variable and lag distance. Female ratio (women): contemporaneous marginal effect of a paper's female co-author ratio for female authors (\(\beta_1\)); female ratio (men): analogous effect for male authors (\(\beta_1+\beta_2\)). (The variable ``female ratio'' defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper. See~\autoref{gender} for more details.) \textit{z}-statistics for first- and second-order autocorrelation in the first-differenced errors~\citep{Arellano1991}; null hypothesis no autocorrelation. Quality controls denoted by \(\text{\ding{51}}^2\) include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority). Standard errors clustered on author (in parentheses).</t>
+  </si>
+  <si>
+    <t>Sample 4,289 observations. Panel one displays magnitude of predicted \(R_{jP}-R_{jW}\) (the direct effect of peer review) for women and men over increasing \(t\). Panel two estimates the marginal effect of an article's female ratio (\(\beta_1+\beta_2\times t\)), separately for draft papers and published articles. Figures from FGLS estimation of~\autoref{equation15}, weighted by \(N_{it}\) (see~\autoref{data}). Control variables include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority), native speaker and editor and journal-year fixed effects. ``Female ratio'' defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper (see~\autoref{gender} for more details). Standard errors clustered by editor and robust to cross-model correlation in parentheses.</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1096,8 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2308,7 +2308,7 @@
         <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" ref="E38:E43" si="15">VLOOKUP($A38,latex,2,FALSE)</f>
@@ -2947,7 +2947,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>VLOOKUP($A58,latex,2,FALSE)</f>
@@ -3065,7 +3065,7 @@
         <v>218</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>VLOOKUP($A62,latex,2,FALSE)</f>
@@ -3302,7 +3302,7 @@
         <v>\autoref{tableH2_FemRatio}, solo-authored papers</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>61</v>

--- a/0-labels/tables.xlsx
+++ b/0-labels/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinhengel/Dropbox/Readability/draft/0-labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F27F27-21CD-3D45-8BBB-B6C36A0F1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD6706-82FA-3E4A-A2D9-7ACD34AFF451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54560" yWindow="500" windowWidth="46200" windowHeight="25520" xr2:uid="{C9968B0E-ADC9-D14B-867F-EABC4A185741}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="232">
   <si>
     <t>table3</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>Sample 4,289 observations. Panel one displays magnitude of predicted \(R_{jP}-R_{jW}\) (the direct effect of peer review) for women and men over increasing \(t\). Panel two estimates the marginal effect of an article's female ratio (\(\beta_1+\beta_2\times t\)), separately for draft papers and published articles. Figures from FGLS estimation of~\autoref{equation15}, weighted by \(N_{it}\) (see~\autoref{data}). Control variables include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority), native speaker and editor and journal-year fixed effects. ``Female ratio'' defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper (see~\autoref{gender} for more details). Standard errors clustered by editor and robust to cross-model correlation in parentheses.</t>
+  </si>
+  <si>
+    <t>Bars on the left-hand side represent (unweighted) matched pairs in which the man satisfies Conditions 1 and 2; right-hand-side bars are pairs in which the woman does. Estimated density functions drawn in grey, weighted by frequency observations are used in a match. Conditional means, standard deviations and sample sizes shown in the first two panels of Table 9.</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1099,8 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,9 +1196,8 @@
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f>CONCATENATE(VLOOKUP($A3,titles_notes,3,FALSE), "9.")</f>
-        <v>Blue bars represent (unweighted) matched pairs in which the man satisfies Conditions 1 and 2; pink bars are pairs in which the woman does. Estimated density functions drawn in grey, weighted by frequency observations are used in a match. Conditional means, standard deviations and sample sizes shown in the first two panels of Table 9.</v>
+      <c r="D3" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>158</v>

--- a/0-labels/tables.xlsx
+++ b/0-labels/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinhengel/Dropbox/Readability/draft/0-labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD6706-82FA-3E4A-A2D9-7ACD34AFF451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C894D0D-4220-904A-B099-AE19342484DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54560" yWindow="500" windowWidth="46200" windowHeight="25520" xr2:uid="{C9968B0E-ADC9-D14B-867F-EABC4A185741}"/>
   </bookViews>
@@ -732,10 +732,10 @@
     <t>Figures from first-differenced, IV estimation of~\autoref{equation1}~\citep{Arellano1995,Blundell1998} where instruments have been collapsed to create one instrument for each variable and lag distance. Female ratio (women): contemporaneous marginal effect of a paper's female co-author ratio for female authors (\(\beta_1\)); female ratio (men): analogous effect for male authors (\(\beta_1+\beta_2\)). (The variable ``female ratio'' defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper. See~\autoref{gender} for more details.) \textit{z}-statistics for first- and second-order autocorrelation in the first-differenced errors~\citep{Arellano1991}; null hypothesis no autocorrelation. Quality controls denoted by \(\text{\ding{51}}^2\) include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority). Standard errors clustered on author (in parentheses).</t>
   </si>
   <si>
-    <t>Sample 4,289 observations. Panel one displays magnitude of predicted \(R_{jP}-R_{jW}\) (the direct effect of peer review) for women and men over increasing \(t\). Panel two estimates the marginal effect of an article's female ratio (\(\beta_1+\beta_2\times t\)), separately for draft papers and published articles. Figures from FGLS estimation of~\autoref{equation15}, weighted by \(N_{it}\) (see~\autoref{data}). Control variables include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority), native speaker and editor and journal-year fixed effects. ``Female ratio'' defines papers with a strict minority of female authors as male-authored; for papers with 50 percent or more female authors, it is the ratio of female authors on a paper (see~\autoref{gender} for more details). Standard errors clustered by editor and robust to cross-model correlation in parentheses.</t>
-  </si>
-  <si>
-    <t>Bars on the left-hand side represent (unweighted) matched pairs in which the man satisfies Conditions 1 and 2; right-hand-side bars are pairs in which the woman does. Estimated density functions drawn in grey, weighted by frequency observations are used in a match. Conditional means, standard deviations and sample sizes shown in the first two panels of Table 9.</t>
+    <t>Left-hand side bars are (unweighted) matched pairs in which the man satisfies Conditions 1 and 2; right-hand-side bars are pairs in which the woman does. Estimated density functions drawn in grey, weighted by frequency observations are used in a match. See Table 9 for conditional means, standard deviations and sample sizes.</t>
+  </si>
+  <si>
+    <t>Sample 4,289 observations. Panel one displays magnitude of predicted \(R_{jP}-R_{jW}\) (the direct effect of peer review) for women and men over increasing \(t\). Panel two estimates the marginal effect of an article's female ratio (\(\beta_1+\beta_2\times t\)), separately for draft papers and published articles. Figures from FGLS estimation of~\autoref{equation15}, weighted by \(N_{it}\) (see~\autoref{data}). Control variables include citation count (asinh), \(\text{max. }T\) (author prominence) and \(\text{max. }t\) (author seniority), native speaker and editor and journal-year fixed effects. Standard errors clustered by editor and robust to cross-model correlation in parentheses.</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1099,8 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,7 +1197,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>158</v>
@@ -3059,7 +3059,7 @@
         <v>all</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>43</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>218</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>VLOOKUP($A62,latex,2,FALSE)</f>
